--- a/src/test/resources/com/sirion/xls/Contract Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Contract Suite.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/com/sirion/xls/Contract Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Contract Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="898" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="898"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>TCID</t>
   </si>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
